--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programation\Optimisation_Portefeuille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Optimisation_Portefeuille\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02399216-04E7-4589-A345-700EE23BC138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440D2BDB-D05A-41D2-B462-CF5E599E9E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2220" windowWidth="26190" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,8 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -172,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -188,6 +200,8 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,15 +482,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V419"/>
+  <dimension ref="A1:AC419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="R400" workbookViewId="0">
+      <selection activeCell="X415" sqref="X415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="23.42578125" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -542,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>32171</v>
       </c>
@@ -609,8 +631,12 @@
       <c r="V2" s="6">
         <v>6.9954144376300001E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>32202</v>
       </c>
@@ -677,8 +703,12 @@
       <c r="V3" s="6">
         <v>5.7294292845400004E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>32233</v>
       </c>
@@ -745,8 +775,12 @@
       <c r="V4" s="6">
         <v>9.9294832264300009E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>32262</v>
       </c>
@@ -813,8 +847,12 @@
       <c r="V5" s="6">
         <v>2.79507894384E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>32294</v>
       </c>
@@ -881,8 +919,12 @@
       <c r="V6" s="6">
         <v>4.2249868860999998E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>32324</v>
       </c>
@@ -949,8 +991,12 @@
       <c r="V7" s="6">
         <v>1.46278424255E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>32353</v>
       </c>
@@ -1017,8 +1063,12 @@
       <c r="V8" s="6">
         <v>-1.06496565229E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>32386</v>
       </c>
@@ -1085,8 +1135,13 @@
       <c r="V9" s="6">
         <v>-1.40841899253E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>32416</v>
       </c>
@@ -1153,8 +1208,13 @@
       <c r="V10" s="6">
         <v>-4.1267427752199998E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>32447</v>
       </c>
@@ -1221,8 +1281,12 @@
       <c r="V11" s="6">
         <v>2.3334511766500001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>32477</v>
       </c>
@@ -1289,8 +1353,12 @@
       <c r="V12" s="6">
         <v>3.8674740587100001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>32507</v>
       </c>
@@ -1357,8 +1425,12 @@
       <c r="V13" s="6">
         <v>6.5752750313199998E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>32539</v>
       </c>
@@ -1425,8 +1497,12 @@
       <c r="V14" s="6">
         <v>-4.2003234127200003E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>32567</v>
       </c>
@@ -1493,8 +1569,12 @@
       <c r="V15" s="6">
         <v>-3.1113023028500001E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>32598</v>
       </c>
@@ -1561,8 +1641,12 @@
       <c r="V16" s="6">
         <v>1.1932857370300001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>32626</v>
       </c>
@@ -1629,8 +1713,12 @@
       <c r="V17" s="6">
         <v>3.4392443017199998E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>32659</v>
       </c>
@@ -1697,8 +1785,12 @@
       <c r="V18" s="6">
         <v>-1.69465688019E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>32689</v>
       </c>
@@ -1765,8 +1857,12 @@
       <c r="V19" s="6">
         <v>1.02295838033E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>32720</v>
       </c>
@@ -1833,8 +1929,12 @@
       <c r="V20" s="6">
         <v>9.58273635786E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>32751</v>
       </c>
@@ -1901,8 +2001,12 @@
       <c r="V21" s="6">
         <v>-2.72666528006E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>32780</v>
       </c>
@@ -1969,8 +2073,12 @@
       <c r="V22" s="6">
         <v>1.08553415458E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>32812</v>
       </c>
@@ -2037,8 +2145,12 @@
       <c r="V23" s="6">
         <v>-7.3928587394999998E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>32842</v>
       </c>
@@ -2105,8 +2217,12 @@
       <c r="V24" s="6">
         <v>1.0360519535699999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>32871</v>
       </c>
@@ -2173,8 +2289,12 @@
       <c r="V25" s="6">
         <v>1.12252362471E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>32904</v>
       </c>
@@ -2241,8 +2361,12 @@
       <c r="V26" s="6">
         <v>-1.4078524122000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>32932</v>
       </c>
@@ -2309,8 +2433,12 @@
       <c r="V27" s="6">
         <v>-1.45528883667E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>32962</v>
       </c>
@@ -2377,8 +2505,12 @@
       <c r="V28" s="6">
         <v>9.4439495841500002E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>32993</v>
       </c>
@@ -2445,8 +2577,12 @@
       <c r="V29" s="6">
         <v>-1.3042490039299999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>33024</v>
       </c>
@@ -2513,8 +2649,12 @@
       <c r="V30" s="6">
         <v>8.8702162555300001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>33053</v>
       </c>
@@ -2581,8 +2721,12 @@
       <c r="V31" s="6">
         <v>8.8171571763600003E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>33085</v>
       </c>
@@ -2649,8 +2793,12 @@
       <c r="V32" s="6">
         <v>1.4352827515299999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>33116</v>
       </c>
@@ -2717,8 +2865,12 @@
       <c r="V33" s="6">
         <v>-1.34873248402E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33144</v>
       </c>
@@ -2785,8 +2937,12 @@
       <c r="V34" s="6">
         <v>-9.7033618153800005E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33177</v>
       </c>
@@ -2853,8 +3009,12 @@
       <c r="V35" s="6">
         <v>8.6797842038099995E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>33207</v>
       </c>
@@ -2921,8 +3081,12 @@
       <c r="V36" s="6">
         <v>-1.14984698266E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>33238</v>
       </c>
@@ -2989,8 +3153,12 @@
       <c r="V37" s="6">
         <v>-4.5842453068199998E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33269</v>
       </c>
@@ -3057,8 +3225,12 @@
       <c r="V38" s="6">
         <v>4.7768830732599996E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>33297</v>
       </c>
@@ -3125,8 +3297,12 @@
       <c r="V39" s="6">
         <v>2.0832715036E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>33326</v>
       </c>
@@ -3193,8 +3369,12 @@
       <c r="V40" s="6">
         <v>-1.8438534261299998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>33358</v>
       </c>
@@ -3261,8 +3441,12 @@
       <c r="V41" s="6">
         <v>1.68954390398E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>33389</v>
       </c>
@@ -3329,8 +3513,12 @@
       <c r="V42" s="6">
         <v>7.65552996344E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>33417</v>
       </c>
@@ -3397,8 +3585,12 @@
       <c r="V43" s="6">
         <v>-2.50004408871E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>33450</v>
       </c>
@@ -3465,8 +3657,12 @@
       <c r="V44" s="6">
         <v>1.6515369492800001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>33480</v>
       </c>
@@ -3533,8 +3729,12 @@
       <c r="V45" s="6">
         <v>6.5715850772699999E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>33511</v>
       </c>
@@ -3601,8 +3801,12 @@
       <c r="V46" s="6">
         <v>1.60796920022E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>33542</v>
       </c>
@@ -3669,8 +3873,12 @@
       <c r="V47" s="6">
         <v>1.9662752621599998E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>33571</v>
       </c>
@@ -3737,8 +3945,12 @@
       <c r="V48" s="6">
         <v>-7.6665684298600004E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>33603</v>
       </c>
@@ -3805,8 +4017,12 @@
       <c r="V49" s="6">
         <v>1.1224182317499999E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>33634</v>
       </c>
@@ -3873,8 +4089,12 @@
       <c r="V50" s="6">
         <v>3.5597727672800001E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>33662</v>
       </c>
@@ -3941,8 +4161,12 @@
       <c r="V51" s="6">
         <v>-3.4283698216600001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>33694</v>
       </c>
@@ -4009,8 +4233,12 @@
       <c r="V52" s="6">
         <v>-7.5565443653500004E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>33724</v>
       </c>
@@ -4077,8 +4305,12 @@
       <c r="V53" s="6">
         <v>1.4709275007399999E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>33753</v>
       </c>
@@ -4145,8 +4377,12 @@
       <c r="V54" s="6">
         <v>1.8837476240600001E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>33785</v>
       </c>
@@ -4213,8 +4449,12 @@
       <c r="V55" s="6">
         <v>5.0800328733400005E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>33816</v>
       </c>
@@ -4281,8 +4521,12 @@
       <c r="V56" s="6">
         <v>-6.0182520712899999E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>33847</v>
       </c>
@@ -4349,8 +4593,12 @@
       <c r="V57" s="6">
         <v>-8.4823237324100004E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>33877</v>
       </c>
@@ -4417,8 +4665,12 @@
       <c r="V58" s="6">
         <v>-1.71962302253E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>33907</v>
       </c>
@@ -4485,8 +4737,12 @@
       <c r="V59" s="6">
         <v>-7.4437572696300002E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>33938</v>
       </c>
@@ -4553,8 +4809,12 @@
       <c r="V60" s="6">
         <v>2.4001057222499999E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>33969</v>
       </c>
@@ -4621,8 +4881,12 @@
       <c r="V61" s="6">
         <v>2.2262396270500001E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>33998</v>
       </c>
@@ -4689,8 +4953,12 @@
       <c r="V62" s="6">
         <v>1.7548264288499999E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>34026</v>
       </c>
@@ -4757,8 +5025,12 @@
       <c r="V63" s="6">
         <v>1.30872653182E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>34059</v>
       </c>
@@ -4825,8 +5097,12 @@
       <c r="V64" s="6">
         <v>1.3578473206100001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>34089</v>
       </c>
@@ -4893,8 +5169,12 @@
       <c r="V65" s="6">
         <v>1.11459869944E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>34120</v>
       </c>
@@ -4961,8 +5241,12 @@
       <c r="V66" s="6">
         <v>1.58508867493E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>34150</v>
       </c>
@@ -5029,8 +5313,12 @@
       <c r="V67" s="6">
         <v>5.5228431955799996E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>34180</v>
       </c>
@@ -5097,8 +5385,12 @@
       <c r="V68" s="6">
         <v>9.1898618179600006E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>34212</v>
       </c>
@@ -5165,8 +5457,12 @@
       <c r="V69" s="6">
         <v>2.3553552191499998E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>34242</v>
       </c>
@@ -5233,8 +5529,12 @@
       <c r="V70" s="6">
         <v>-1.09812592982E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>34271</v>
       </c>
@@ -5301,8 +5601,12 @@
       <c r="V71" s="6">
         <v>1.45699681481E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>34303</v>
       </c>
@@ -5369,8 +5673,12 @@
       <c r="V72" s="6">
         <v>-9.9686991608799996E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>34334</v>
       </c>
@@ -5437,8 +5745,12 @@
       <c r="V73" s="6">
         <v>2.3389579857199999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>34365</v>
       </c>
@@ -5505,8 +5817,12 @@
       <c r="V74" s="6">
         <v>1.66851250016E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>34393</v>
       </c>
@@ -5573,8 +5889,12 @@
       <c r="V75" s="6">
         <v>-1.76547583663E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>34424</v>
       </c>
@@ -5641,8 +5961,12 @@
       <c r="V76" s="6">
         <v>-1.8679168610000001E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>34453</v>
       </c>
@@ -5709,8 +6033,12 @@
       <c r="V77" s="6">
         <v>4.1170647478499999E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>34485</v>
       </c>
@@ -5777,8 +6105,12 @@
       <c r="V78" s="6">
         <v>4.1440115516300002E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>34515</v>
       </c>
@@ -5845,8 +6177,12 @@
       <c r="V79" s="6">
         <v>-9.5559984953800005E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>34544</v>
       </c>
@@ -5913,8 +6249,12 @@
       <c r="V80" s="6">
         <v>1.01539504536E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>34577</v>
       </c>
@@ -5981,8 +6321,12 @@
       <c r="V81" s="6">
         <v>-7.7012683546699998E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>34607</v>
       </c>
@@ -6049,8 +6393,12 @@
       <c r="V82" s="6">
         <v>-7.0260067494400001E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>34638</v>
       </c>
@@ -6117,8 +6465,12 @@
       <c r="V83" s="6">
         <v>8.4830100009199993E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>34668</v>
       </c>
@@ -6185,8 +6537,12 @@
       <c r="V84" s="6">
         <v>-9.6852125914099994E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>34698</v>
       </c>
@@ -6253,8 +6609,12 @@
       <c r="V85" s="6">
         <v>1.02967508483E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>34730</v>
       </c>
@@ -6321,8 +6681,12 @@
       <c r="V86" s="6">
         <v>-7.86144006017E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>34758</v>
       </c>
@@ -6389,8 +6753,12 @@
       <c r="V87" s="6">
         <v>5.1026195179599996E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>34789</v>
       </c>
@@ -6457,8 +6825,12 @@
       <c r="V88" s="6">
         <v>1.19145283462E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>34817</v>
       </c>
@@ -6525,8 +6897,12 @@
       <c r="V89" s="6">
         <v>1.5979553581300002E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>34850</v>
       </c>
@@ -6593,8 +6969,12 @@
       <c r="V90" s="6">
         <v>1.4190529468599999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>34880</v>
       </c>
@@ -6661,8 +7041,12 @@
       <c r="V91" s="6">
         <v>-1.4044296972399999E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>34911</v>
       </c>
@@ -6729,8 +7113,12 @@
       <c r="V92" s="6">
         <v>1.43656072933E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>34942</v>
       </c>
@@ -6797,8 +7185,12 @@
       <c r="V93" s="6">
         <v>-1.5370182621500001E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>34971</v>
       </c>
@@ -6865,8 +7257,12 @@
       <c r="V94" s="6">
         <v>9.9252831351700002E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>35003</v>
       </c>
@@ -6933,8 +7329,12 @@
       <c r="V95" s="6">
         <v>3.8588530455300001E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>35033</v>
       </c>
@@ -7001,8 +7401,12 @@
       <c r="V96" s="6">
         <v>7.8539861791899999E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>35062</v>
       </c>
@@ -7069,8 +7473,12 @@
       <c r="V97" s="6">
         <v>1.8435764890400001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>35095</v>
       </c>
@@ -7137,8 +7545,12 @@
       <c r="V98" s="6">
         <v>6.3809435859799998E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>35124</v>
       </c>
@@ -7205,8 +7617,12 @@
       <c r="V99" s="6">
         <v>1.6481922344399999E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>35153</v>
       </c>
@@ -7273,8 +7689,12 @@
       <c r="V100" s="6">
         <v>1.0723771239699999E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>35185</v>
       </c>
@@ -7341,8 +7761,12 @@
       <c r="V101" s="6">
         <v>1.29710462154E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>35216</v>
       </c>
@@ -7409,8 +7833,12 @@
       <c r="V102" s="6">
         <v>-1.34351111331E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>35244</v>
       </c>
@@ -7477,8 +7905,12 @@
       <c r="V103" s="6">
         <v>-1.2195281602999999E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>35277</v>
       </c>
@@ -7545,8 +7977,12 @@
       <c r="V104" s="6">
         <v>-2.76179408348E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>35307</v>
       </c>
@@ -7613,8 +8049,12 @@
       <c r="V105" s="6">
         <v>1.5775707681699998E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>35338</v>
       </c>
@@ -7681,8 +8121,12 @@
       <c r="V106" s="6">
         <v>4.0033697715300002E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>35369</v>
       </c>
@@ -7749,8 +8193,12 @@
       <c r="V107" s="6">
         <v>4.7793093940599997E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>35398</v>
       </c>
@@ -7817,8 +8265,12 @@
       <c r="V108" s="6">
         <v>2.0903685501E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>35430</v>
       </c>
@@ -7885,8 +8337,12 @@
       <c r="V109" s="6">
         <v>8.1874796506E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>35461</v>
       </c>
@@ -7953,8 +8409,12 @@
       <c r="V110" s="6">
         <v>2.1089601728600002E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>35489</v>
       </c>
@@ -8021,8 +8481,12 @@
       <c r="V111" s="6">
         <v>4.0066934447199999E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>35520</v>
       </c>
@@ -8089,8 +8553,12 @@
       <c r="V112" s="6">
         <v>-1.10679092547E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>35550</v>
       </c>
@@ -8157,8 +8625,12 @@
       <c r="V113" s="6">
         <v>1.07114142812E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>35580</v>
       </c>
@@ -8225,8 +8697,12 @@
       <c r="V114" s="6">
         <v>1.4622963320299999E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>35611</v>
       </c>
@@ -8293,8 +8769,12 @@
       <c r="V115" s="6">
         <v>8.0511685222800001E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>35642</v>
       </c>
@@ -8361,8 +8841,12 @@
       <c r="V116" s="6">
         <v>1.8299274562299999E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>35671</v>
       </c>
@@ -8429,8 +8913,12 @@
       <c r="V117" s="6">
         <v>-1.4181950528900001E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>35703</v>
       </c>
@@ -8497,8 +8985,12 @@
       <c r="V118" s="6">
         <v>1.86110474619E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="7"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>35734</v>
       </c>
@@ -8565,8 +9057,12 @@
       <c r="V119" s="6">
         <v>-8.22604299803E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>35762</v>
       </c>
@@ -8633,8 +9129,12 @@
       <c r="V120" s="6">
         <v>-9.4138943614099999E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X120" s="7"/>
+      <c r="Y120" s="7"/>
+      <c r="Z120" s="7"/>
+      <c r="AA120" s="7"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>35795</v>
       </c>
@@ -8701,8 +9201,12 @@
       <c r="V121" s="6">
         <v>-7.2659723873099999E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>35825</v>
       </c>
@@ -8769,8 +9273,12 @@
       <c r="V122" s="6">
         <v>4.9592827585399997E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>35853</v>
       </c>
@@ -8837,8 +9345,12 @@
       <c r="V123" s="6">
         <v>3.7667696087300001E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="7"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>35885</v>
       </c>
@@ -8905,8 +9417,12 @@
       <c r="V124" s="6">
         <v>3.3124999808899999E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="7"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>35915</v>
       </c>
@@ -8973,8 +9489,12 @@
       <c r="V125" s="6">
         <v>-6.1313200295899997E-4</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="7"/>
+      <c r="AA125" s="7"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>35944</v>
       </c>
@@ -9041,8 +9561,12 @@
       <c r="V126" s="6">
         <v>-5.2942627814299998E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="7"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>35976</v>
       </c>
@@ -9109,8 +9633,12 @@
       <c r="V127" s="6">
         <v>-7.0820647918299999E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="7"/>
+      <c r="AA127" s="7"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>36007</v>
       </c>
@@ -9177,8 +9705,12 @@
       <c r="V128" s="6">
         <v>-7.0530052811299997E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="7"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>36038</v>
       </c>
@@ -9245,8 +9777,12 @@
       <c r="V129" s="6">
         <v>-2.4018782714799999E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="7"/>
+      <c r="AA129" s="7"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>36068</v>
       </c>
@@ -9313,8 +9849,12 @@
       <c r="V130" s="6">
         <v>2.8198020606100001E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="7"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>36098</v>
       </c>
@@ -9381,8 +9921,12 @@
       <c r="V131" s="6">
         <v>9.9966894982800002E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="7"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>36129</v>
       </c>
@@ -9449,8 +9993,12 @@
       <c r="V132" s="6">
         <v>-4.9893432142999999E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X132" s="7"/>
+      <c r="Y132" s="7"/>
+      <c r="Z132" s="7"/>
+      <c r="AA132" s="7"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>36160</v>
       </c>
@@ -9517,8 +10065,12 @@
       <c r="V133" s="6">
         <v>2.8049930321600002E-4</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="7"/>
+      <c r="AA133" s="7"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>36189</v>
       </c>
@@ -9585,8 +10137,12 @@
       <c r="V134" s="6">
         <v>6.0166449651399998E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="7"/>
+      <c r="AA134" s="7"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>36217</v>
       </c>
@@ -9653,8 +10209,12 @@
       <c r="V135" s="6">
         <v>-2.2875463248300001E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="7"/>
+      <c r="AA135" s="7"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>36250</v>
       </c>
@@ -9721,8 +10281,12 @@
       <c r="V136" s="6">
         <v>1.9057044366699999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="7"/>
+      <c r="AA136" s="7"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>36280</v>
       </c>
@@ -9789,8 +10353,12 @@
       <c r="V137" s="6">
         <v>1.37763648077E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="7"/>
+      <c r="AA137" s="7"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>36311</v>
       </c>
@@ -9857,8 +10425,12 @@
       <c r="V138" s="6">
         <v>-2.4668545493800001E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="7"/>
+      <c r="AA138" s="7"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>36341</v>
       </c>
@@ -9925,8 +10497,12 @@
       <c r="V139" s="6">
         <v>-1.4985045996599999E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="7"/>
+      <c r="AA139" s="7"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>36371</v>
       </c>
@@ -9993,8 +10569,12 @@
       <c r="V140" s="6">
         <v>-4.1094906776900002E-4</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>36403</v>
       </c>
@@ -10061,8 +10641,12 @@
       <c r="V141" s="6">
         <v>4.8732903141900001E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X141" s="7"/>
+      <c r="Y141" s="7"/>
+      <c r="Z141" s="7"/>
+      <c r="AA141" s="7"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>36433</v>
       </c>
@@ -10129,8 +10713,12 @@
       <c r="V142" s="6">
         <v>3.4110812961300001E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="7"/>
+      <c r="AA142" s="7"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>36462</v>
       </c>
@@ -10197,8 +10785,12 @@
       <c r="V143" s="6">
         <v>-5.3858430394500001E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X143" s="7"/>
+      <c r="Y143" s="7"/>
+      <c r="Z143" s="7"/>
+      <c r="AA143" s="7"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>36494</v>
       </c>
@@ -10265,8 +10857,12 @@
       <c r="V144" s="6">
         <v>5.4422426223799999E-3</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X144" s="7"/>
+      <c r="Y144" s="7"/>
+      <c r="Z144" s="7"/>
+      <c r="AA144" s="7"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>36525</v>
       </c>
@@ -10333,8 +10929,12 @@
       <c r="V145" s="6">
         <v>9.9447188907199995E-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X145" s="7"/>
+      <c r="Y145" s="7"/>
+      <c r="Z145" s="7"/>
+      <c r="AA145" s="7"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>36556</v>
       </c>
@@ -10401,8 +11001,12 @@
       <c r="V146" s="6">
         <v>-1.2673750248E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X146" s="7"/>
+      <c r="Y146" s="7"/>
+      <c r="Z146" s="7"/>
+      <c r="AA146" s="7"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>36585</v>
       </c>
@@ -10469,8 +11073,12 @@
       <c r="V147" s="6">
         <v>4.1431172705599997E-3</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>36616</v>
       </c>
@@ -10537,8 +11145,12 @@
       <c r="V148" s="6">
         <v>1.33481038757E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X148" s="7"/>
+      <c r="Y148" s="7"/>
+      <c r="Z148" s="7"/>
+      <c r="AA148" s="7"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>36644</v>
       </c>
@@ -10605,8 +11217,12 @@
       <c r="V149" s="6">
         <v>-1.47723361173E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X149" s="7"/>
+      <c r="Y149" s="7"/>
+      <c r="Z149" s="7"/>
+      <c r="AA149" s="7"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>36677</v>
       </c>
@@ -10673,8 +11289,12 @@
       <c r="V150" s="6">
         <v>1.56852058258E-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X150" s="7"/>
+      <c r="Y150" s="7"/>
+      <c r="Z150" s="7"/>
+      <c r="AA150" s="7"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>36707</v>
       </c>
@@ -10741,8 +11361,12 @@
       <c r="V151" s="6">
         <v>1.13674296064E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X151" s="7"/>
+      <c r="Y151" s="7"/>
+      <c r="Z151" s="7"/>
+      <c r="AA151" s="7"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>36738</v>
       </c>
@@ -10809,8 +11433,12 @@
       <c r="V152" s="6">
         <v>-1.21705254515E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X152" s="7"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="7"/>
+      <c r="AA152" s="7"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>36769</v>
       </c>
@@ -10877,8 +11505,12 @@
       <c r="V153" s="6">
         <v>5.5536218361800001E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="7"/>
+      <c r="AA153" s="7"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>36798</v>
       </c>
@@ -10945,8 +11577,12 @@
       <c r="V154" s="6">
         <v>-8.0499811332799993E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X154" s="7"/>
+      <c r="Y154" s="7"/>
+      <c r="Z154" s="7"/>
+      <c r="AA154" s="7"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>36830</v>
       </c>
@@ -11013,8 +11649,12 @@
       <c r="V155" s="6">
         <v>-1.1972982640200001E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X155" s="7"/>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="7"/>
+      <c r="AA155" s="7"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>36860</v>
       </c>
@@ -11081,8 +11721,12 @@
       <c r="V156" s="6">
         <v>8.6900203551299997E-3</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X156" s="7"/>
+      <c r="Y156" s="7"/>
+      <c r="Z156" s="7"/>
+      <c r="AA156" s="7"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>36889</v>
       </c>
@@ -11149,8 +11793,12 @@
       <c r="V157" s="6">
         <v>1.6361063212299999E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X157" s="7"/>
+      <c r="Y157" s="7"/>
+      <c r="Z157" s="7"/>
+      <c r="AA157" s="7"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>36922</v>
       </c>
@@ -11217,8 +11865,12 @@
       <c r="V158" s="6">
         <v>-1.2554512474899999E-3</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X158" s="7"/>
+      <c r="Y158" s="7"/>
+      <c r="Z158" s="7"/>
+      <c r="AA158" s="7"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>36950</v>
       </c>
@@ -11285,8 +11937,12 @@
       <c r="V159" s="6">
         <v>-1.07938078696E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="7"/>
+      <c r="AA159" s="7"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>36980</v>
       </c>
@@ -11353,8 +12009,12 @@
       <c r="V160" s="6">
         <v>-2.0604262338400001E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X160" s="7"/>
+      <c r="Y160" s="7"/>
+      <c r="Z160" s="7"/>
+      <c r="AA160" s="7"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>37011</v>
       </c>
@@ -11421,8 +12081,12 @@
       <c r="V161" s="6">
         <v>3.3666935324299999E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X161" s="7"/>
+      <c r="Y161" s="7"/>
+      <c r="Z161" s="7"/>
+      <c r="AA161" s="7"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>37042</v>
       </c>
@@ -11489,8 +12153,12 @@
       <c r="V162" s="6">
         <v>-1.1306017606E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X162" s="7"/>
+      <c r="Y162" s="7"/>
+      <c r="Z162" s="7"/>
+      <c r="AA162" s="7"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>37071</v>
       </c>
@@ -11557,8 +12225,12 @@
       <c r="V163" s="6">
         <v>-7.4076364151199996E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X163" s="7"/>
+      <c r="Y163" s="7"/>
+      <c r="Z163" s="7"/>
+      <c r="AA163" s="7"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>37103</v>
       </c>
@@ -11625,8 +12297,12 @@
       <c r="V164" s="6">
         <v>8.8580729208500002E-3</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X164" s="7"/>
+      <c r="Y164" s="7"/>
+      <c r="Z164" s="7"/>
+      <c r="AA164" s="7"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>37134</v>
       </c>
@@ -11693,8 +12369,12 @@
       <c r="V165" s="6">
         <v>4.7832746780500004E-3</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X165" s="7"/>
+      <c r="Y165" s="7"/>
+      <c r="Z165" s="7"/>
+      <c r="AA165" s="7"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>37162</v>
       </c>
@@ -11761,8 +12441,12 @@
       <c r="V166" s="6">
         <v>-2.4482644821099998E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X166" s="7"/>
+      <c r="Y166" s="7"/>
+      <c r="Z166" s="7"/>
+      <c r="AA166" s="7"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>37195</v>
       </c>
@@ -11829,8 +12513,12 @@
       <c r="V167" s="6">
         <v>1.08932172391E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X167" s="7"/>
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="7"/>
+      <c r="AA167" s="7"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>37225</v>
       </c>
@@ -11897,8 +12585,12 @@
       <c r="V168" s="6">
         <v>4.5717517973599998E-3</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X168" s="7"/>
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="7"/>
+      <c r="AA168" s="7"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>37256</v>
       </c>
@@ -11965,8 +12657,12 @@
       <c r="V169" s="6">
         <v>-9.2164988239399996E-3</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X169" s="7"/>
+      <c r="Y169" s="7"/>
+      <c r="Z169" s="7"/>
+      <c r="AA169" s="7"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>37287</v>
       </c>
@@ -12033,8 +12729,12 @@
       <c r="V170" s="6">
         <v>-7.6317324765700001E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X170" s="7"/>
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="7"/>
+      <c r="AA170" s="7"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>37315</v>
       </c>
@@ -12101,8 +12801,12 @@
       <c r="V171" s="6">
         <v>4.74470533798E-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X171" s="7"/>
+      <c r="Y171" s="7"/>
+      <c r="Z171" s="7"/>
+      <c r="AA171" s="7"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>37344</v>
       </c>
@@ -12169,8 +12873,12 @@
       <c r="V172" s="6">
         <v>1.21836611515E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X172" s="7"/>
+      <c r="Y172" s="7"/>
+      <c r="Z172" s="7"/>
+      <c r="AA172" s="7"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>37376</v>
       </c>
@@ -12237,8 +12945,12 @@
       <c r="V173" s="6">
         <v>3.9649166652499998E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X173" s="7"/>
+      <c r="Y173" s="7"/>
+      <c r="Z173" s="7"/>
+      <c r="AA173" s="7"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>37407</v>
       </c>
@@ -12305,8 +13017,12 @@
       <c r="V174" s="6">
         <v>1.1150772246299999E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X174" s="7"/>
+      <c r="Y174" s="7"/>
+      <c r="Z174" s="7"/>
+      <c r="AA174" s="7"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>37435</v>
       </c>
@@ -12373,8 +13089,12 @@
       <c r="V175" s="6">
         <v>1.1010857887800001E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X175" s="7"/>
+      <c r="Y175" s="7"/>
+      <c r="Z175" s="7"/>
+      <c r="AA175" s="7"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>37468</v>
       </c>
@@ -12441,8 +13161,12 @@
       <c r="V176" s="6">
         <v>-5.25748569804E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X176" s="7"/>
+      <c r="Y176" s="7"/>
+      <c r="Z176" s="7"/>
+      <c r="AA176" s="7"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>37498</v>
       </c>
@@ -12509,8 +13233,12 @@
       <c r="V177" s="6">
         <v>1.4846592003700001E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X177" s="7"/>
+      <c r="Y177" s="7"/>
+      <c r="Z177" s="7"/>
+      <c r="AA177" s="7"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>37529</v>
       </c>
@@ -12577,8 +13305,12 @@
       <c r="V178" s="6">
         <v>1.3403929962E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X178" s="7"/>
+      <c r="Y178" s="7"/>
+      <c r="Z178" s="7"/>
+      <c r="AA178" s="7"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>37560</v>
       </c>
@@ -12645,8 +13377,12 @@
       <c r="V179" s="6">
         <v>6.7934735888899997E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X179" s="7"/>
+      <c r="Y179" s="7"/>
+      <c r="Z179" s="7"/>
+      <c r="AA179" s="7"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>37589</v>
       </c>
@@ -12713,8 +13449,12 @@
       <c r="V180" s="6">
         <v>1.0193890188399999E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X180" s="7"/>
+      <c r="Y180" s="7"/>
+      <c r="Z180" s="7"/>
+      <c r="AA180" s="7"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>37621</v>
       </c>
@@ -12781,8 +13521,12 @@
       <c r="V181" s="6">
         <v>1.36923201911E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X181" s="7"/>
+      <c r="Y181" s="7"/>
+      <c r="Z181" s="7"/>
+      <c r="AA181" s="7"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>37652</v>
       </c>
@@ -12849,8 +13593,12 @@
       <c r="V182" s="6">
         <v>1.6256504758000001E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X182" s="7"/>
+      <c r="Y182" s="7"/>
+      <c r="Z182" s="7"/>
+      <c r="AA182" s="7"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>37680</v>
       </c>
@@ -12917,8 +13665,12 @@
       <c r="V183" s="6">
         <v>7.1060253592099996E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X183" s="7"/>
+      <c r="Y183" s="7"/>
+      <c r="Z183" s="7"/>
+      <c r="AA183" s="7"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>37711</v>
       </c>
@@ -12985,8 +13737,12 @@
       <c r="V184" s="6">
         <v>-1.5446078137499999E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X184" s="7"/>
+      <c r="Y184" s="7"/>
+      <c r="Z184" s="7"/>
+      <c r="AA184" s="7"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>37741</v>
       </c>
@@ -13053,8 +13809,12 @@
       <c r="V185" s="6">
         <v>1.6147079928500001E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X185" s="7"/>
+      <c r="Y185" s="7"/>
+      <c r="Z185" s="7"/>
+      <c r="AA185" s="7"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>37771</v>
       </c>
@@ -13121,8 +13881,12 @@
       <c r="V186" s="6">
         <v>3.2022197172799999E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X186" s="7"/>
+      <c r="Y186" s="7"/>
+      <c r="Z186" s="7"/>
+      <c r="AA186" s="7"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>37802</v>
       </c>
@@ -13189,8 +13953,12 @@
       <c r="V187" s="6">
         <v>-5.2393536993100001E-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X187" s="7"/>
+      <c r="Y187" s="7"/>
+      <c r="Z187" s="7"/>
+      <c r="AA187" s="7"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>37833</v>
       </c>
@@ -13257,8 +14025,12 @@
       <c r="V188" s="6">
         <v>-9.9536201795499997E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X188" s="7"/>
+      <c r="Y188" s="7"/>
+      <c r="Z188" s="7"/>
+      <c r="AA188" s="7"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>37862</v>
       </c>
@@ -13325,8 +14097,12 @@
       <c r="V189" s="6">
         <v>7.7280377143299998E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X189" s="7"/>
+      <c r="Y189" s="7"/>
+      <c r="Z189" s="7"/>
+      <c r="AA189" s="7"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>37894</v>
       </c>
@@ -13393,8 +14169,12 @@
       <c r="V190" s="6">
         <v>2.0692085029900002E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X190" s="7"/>
+      <c r="Y190" s="7"/>
+      <c r="Z190" s="7"/>
+      <c r="AA190" s="7"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>37925</v>
       </c>
@@ -13461,8 +14241,12 @@
       <c r="V191" s="6">
         <v>1.09863267095E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X191" s="7"/>
+      <c r="Y191" s="7"/>
+      <c r="Z191" s="7"/>
+      <c r="AA191" s="7"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>37953</v>
       </c>
@@ -13529,8 +14313,12 @@
       <c r="V192" s="6">
         <v>8.0356181822799997E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X192" s="7"/>
+      <c r="Y192" s="7"/>
+      <c r="Z192" s="7"/>
+      <c r="AA192" s="7"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>37986</v>
       </c>
@@ -13597,8 +14385,12 @@
       <c r="V193" s="6">
         <v>2.8132070898699998E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X193" s="7"/>
+      <c r="Y193" s="7"/>
+      <c r="Z193" s="7"/>
+      <c r="AA193" s="7"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>38016</v>
       </c>
@@ -13665,8 +14457,12 @@
       <c r="V194" s="6">
         <v>8.3666201216299994E-3</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X194" s="7"/>
+      <c r="Y194" s="7"/>
+      <c r="Z194" s="7"/>
+      <c r="AA194" s="7"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>38044</v>
       </c>
@@ -13733,8 +14529,12 @@
       <c r="V195" s="6">
         <v>2.12682608137E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X195" s="7"/>
+      <c r="Y195" s="7"/>
+      <c r="Z195" s="7"/>
+      <c r="AA195" s="7"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>38077</v>
       </c>
@@ -13801,8 +14601,12 @@
       <c r="V196" s="6">
         <v>6.3120849876599997E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X196" s="7"/>
+      <c r="Y196" s="7"/>
+      <c r="Z196" s="7"/>
+      <c r="AA196" s="7"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>38107</v>
       </c>
@@ -13869,8 +14673,12 @@
       <c r="V197" s="6">
         <v>-2.1216066447800001E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X197" s="7"/>
+      <c r="Y197" s="7"/>
+      <c r="Z197" s="7"/>
+      <c r="AA197" s="7"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>38138</v>
       </c>
@@ -13937,8 +14745,12 @@
       <c r="V198" s="6">
         <v>4.9249106510200003E-3</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X198" s="7"/>
+      <c r="Y198" s="7"/>
+      <c r="Z198" s="7"/>
+      <c r="AA198" s="7"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>38168</v>
       </c>
@@ -14005,8 +14817,12 @@
       <c r="V199" s="6">
         <v>-1.54690369373E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X199" s="7"/>
+      <c r="Y199" s="7"/>
+      <c r="Z199" s="7"/>
+      <c r="AA199" s="7"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>38198</v>
       </c>
@@ -14073,8 +14889,12 @@
       <c r="V200" s="6">
         <v>-1.1796819430800001E-3</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X200" s="7"/>
+      <c r="Y200" s="7"/>
+      <c r="Z200" s="7"/>
+      <c r="AA200" s="7"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>38230</v>
       </c>
@@ -14141,8 +14961,12 @@
       <c r="V201" s="6">
         <v>1.10227364759E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X201" s="7"/>
+      <c r="Y201" s="7"/>
+      <c r="Z201" s="7"/>
+      <c r="AA201" s="7"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>38260</v>
       </c>
@@ -14209,8 +15033,12 @@
       <c r="V202" s="6">
         <v>2.0186632018699999E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X202" s="7"/>
+      <c r="Y202" s="7"/>
+      <c r="Z202" s="7"/>
+      <c r="AA202" s="7"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>38289</v>
       </c>
@@ -14277,8 +15105,12 @@
       <c r="V203" s="6">
         <v>1.2885424921399999E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X203" s="7"/>
+      <c r="Y203" s="7"/>
+      <c r="Z203" s="7"/>
+      <c r="AA203" s="7"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>38321</v>
       </c>
@@ -14345,8 +15177,12 @@
       <c r="V204" s="6">
         <v>2.1759316438700001E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X204" s="7"/>
+      <c r="Y204" s="7"/>
+      <c r="Z204" s="7"/>
+      <c r="AA204" s="7"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>38352</v>
       </c>
@@ -14413,8 +15249,12 @@
       <c r="V205" s="6">
         <v>3.8551418994799999E-3</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X205" s="7"/>
+      <c r="Y205" s="7"/>
+      <c r="Z205" s="7"/>
+      <c r="AA205" s="7"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>38383</v>
       </c>
@@ -14481,8 +15321,12 @@
       <c r="V206" s="6">
         <v>-9.8642584715099993E-4</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X206" s="7"/>
+      <c r="Y206" s="7"/>
+      <c r="Z206" s="7"/>
+      <c r="AA206" s="7"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>38411</v>
       </c>
@@ -14549,8 +15393,12 @@
       <c r="V207" s="6">
         <v>1.87453909151E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X207" s="7"/>
+      <c r="Y207" s="7"/>
+      <c r="Z207" s="7"/>
+      <c r="AA207" s="7"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>38442</v>
       </c>
@@ -14617,8 +15465,12 @@
       <c r="V208" s="6">
         <v>8.5477567768899997E-4</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X208" s="7"/>
+      <c r="Y208" s="7"/>
+      <c r="Z208" s="7"/>
+      <c r="AA208" s="7"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>38471</v>
       </c>
@@ -14685,8 +15537,12 @@
       <c r="V209" s="6">
         <v>-2.26277497553E-3</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X209" s="7"/>
+      <c r="Y209" s="7"/>
+      <c r="Z209" s="7"/>
+      <c r="AA209" s="7"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>38503</v>
       </c>
@@ -14753,8 +15609,12 @@
       <c r="V210" s="6">
         <v>5.5885240861599996E-4</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X210" s="7"/>
+      <c r="Y210" s="7"/>
+      <c r="Z210" s="7"/>
+      <c r="AA210" s="7"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>38533</v>
       </c>
@@ -14821,8 +15681,12 @@
       <c r="V211" s="6">
         <v>6.0830702526500002E-3</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X211" s="7"/>
+      <c r="Y211" s="7"/>
+      <c r="Z211" s="7"/>
+      <c r="AA211" s="7"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>38562</v>
       </c>
@@ -14889,8 +15753,12 @@
       <c r="V212" s="6">
         <v>4.1883766901299998E-3</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X212" s="7"/>
+      <c r="Y212" s="7"/>
+      <c r="Z212" s="7"/>
+      <c r="AA212" s="7"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>38595</v>
       </c>
@@ -14957,8 +15825,12 @@
       <c r="V213" s="6">
         <v>1.47047353936E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X213" s="7"/>
+      <c r="Y213" s="7"/>
+      <c r="Z213" s="7"/>
+      <c r="AA213" s="7"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>38625</v>
       </c>
@@ -15025,8 +15897,12 @@
       <c r="V214" s="6">
         <v>4.1455944630299996E-3</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X214" s="7"/>
+      <c r="Y214" s="7"/>
+      <c r="Z214" s="7"/>
+      <c r="AA214" s="7"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>38656</v>
       </c>
@@ -15093,8 +15969,12 @@
       <c r="V215" s="6">
         <v>-1.8607177763700002E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X215" s="7"/>
+      <c r="Y215" s="7"/>
+      <c r="Z215" s="7"/>
+      <c r="AA215" s="7"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>38686</v>
       </c>
@@ -15161,8 +16041,12 @@
       <c r="V216" s="6">
         <v>4.13058531235E-3</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X216" s="7"/>
+      <c r="Y216" s="7"/>
+      <c r="Z216" s="7"/>
+      <c r="AA216" s="7"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>38716</v>
       </c>
@@ -15229,8 +16113,12 @@
       <c r="V217" s="6">
         <v>1.65169671573E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X217" s="7"/>
+      <c r="Y217" s="7"/>
+      <c r="Z217" s="7"/>
+      <c r="AA217" s="7"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>38748</v>
       </c>
@@ -15297,8 +16185,12 @@
       <c r="V218" s="6">
         <v>1.52224091497E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X218" s="7"/>
+      <c r="Y218" s="7"/>
+      <c r="Z218" s="7"/>
+      <c r="AA218" s="7"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>38776</v>
       </c>
@@ -15365,8 +16257,12 @@
       <c r="V219" s="6">
         <v>-7.8895243234199993E-3</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X219" s="7"/>
+      <c r="Y219" s="7"/>
+      <c r="Z219" s="7"/>
+      <c r="AA219" s="7"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>38807</v>
       </c>
@@ -15433,8 +16329,12 @@
       <c r="V220" s="6">
         <v>-1.21084942801E-3</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X220" s="7"/>
+      <c r="Y220" s="7"/>
+      <c r="Z220" s="7"/>
+      <c r="AA220" s="7"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>38835</v>
       </c>
@@ -15501,8 +16401,12 @@
       <c r="V221" s="6">
         <v>1.7940997240199999E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X221" s="7"/>
+      <c r="Y221" s="7"/>
+      <c r="Z221" s="7"/>
+      <c r="AA221" s="7"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>38868</v>
       </c>
@@ -15569,8 +16473,12 @@
       <c r="V222" s="6">
         <v>-7.6746854569599999E-3</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X222" s="7"/>
+      <c r="Y222" s="7"/>
+      <c r="Z222" s="7"/>
+      <c r="AA222" s="7"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>38898</v>
       </c>
@@ -15637,8 +16545,12 @@
       <c r="V223" s="6">
         <v>-7.3772718287600002E-3</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X223" s="7"/>
+      <c r="Y223" s="7"/>
+      <c r="Z223" s="7"/>
+      <c r="AA223" s="7"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>38929</v>
       </c>
@@ -15705,8 +16617,12 @@
       <c r="V224" s="6">
         <v>8.3842419828600006E-3</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X224" s="7"/>
+      <c r="Y224" s="7"/>
+      <c r="Z224" s="7"/>
+      <c r="AA224" s="7"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>38960</v>
       </c>
@@ -15773,8 +16689,12 @@
       <c r="V225" s="6">
         <v>7.2894075866899999E-3</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X225" s="7"/>
+      <c r="Y225" s="7"/>
+      <c r="Z225" s="7"/>
+      <c r="AA225" s="7"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>38989</v>
       </c>
@@ -15841,8 +16761,12 @@
       <c r="V226" s="6">
         <v>-4.7921903861099999E-3</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X226" s="7"/>
+      <c r="Y226" s="7"/>
+      <c r="Z226" s="7"/>
+      <c r="AA226" s="7"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>39021</v>
       </c>
@@ -15909,8 +16833,12 @@
       <c r="V227" s="6">
         <v>1.49086899979E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X227" s="7"/>
+      <c r="Y227" s="7"/>
+      <c r="Z227" s="7"/>
+      <c r="AA227" s="7"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>39051</v>
       </c>
@@ -15977,8 +16905,12 @@
       <c r="V228" s="6">
         <v>1.7478078444100001E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X228" s="7"/>
+      <c r="Y228" s="7"/>
+      <c r="Z228" s="7"/>
+      <c r="AA228" s="7"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>39080</v>
       </c>
@@ -16045,8 +16977,12 @@
       <c r="V229" s="6">
         <v>-5.9659797014500002E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X229" s="7"/>
+      <c r="Y229" s="7"/>
+      <c r="Z229" s="7"/>
+      <c r="AA229" s="7"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>39113</v>
       </c>
@@ -16113,8 +17049,12 @@
       <c r="V230" s="6">
         <v>-5.3894732707400004E-3</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X230" s="7"/>
+      <c r="Y230" s="7"/>
+      <c r="Z230" s="7"/>
+      <c r="AA230" s="7"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>39141</v>
       </c>
@@ -16181,8 +17121,12 @@
       <c r="V231" s="6">
         <v>9.5564563339700006E-3</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X231" s="7"/>
+      <c r="Y231" s="7"/>
+      <c r="Z231" s="7"/>
+      <c r="AA231" s="7"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>39171</v>
       </c>
@@ -16249,8 +17193,12 @@
       <c r="V232" s="6">
         <v>4.2719842674000001E-3</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X232" s="7"/>
+      <c r="Y232" s="7"/>
+      <c r="Z232" s="7"/>
+      <c r="AA232" s="7"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>39202</v>
       </c>
@@ -16317,8 +17265,12 @@
       <c r="V233" s="6">
         <v>1.08735694333E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X233" s="7"/>
+      <c r="Y233" s="7"/>
+      <c r="Z233" s="7"/>
+      <c r="AA233" s="7"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>39233</v>
       </c>
@@ -16385,8 +17337,12 @@
       <c r="V234" s="6">
         <v>-4.5322130123500001E-4</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X234" s="7"/>
+      <c r="Y234" s="7"/>
+      <c r="Z234" s="7"/>
+      <c r="AA234" s="7"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>39262</v>
       </c>
@@ -16453,8 +17409,12 @@
       <c r="V235" s="6">
         <v>-2.1668229398900001E-3</v>
       </c>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X235" s="7"/>
+      <c r="Y235" s="7"/>
+      <c r="Z235" s="7"/>
+      <c r="AA235" s="7"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>39294</v>
       </c>
@@ -16521,8 +17481,12 @@
       <c r="V236" s="6">
         <v>7.1813441057800003E-3</v>
       </c>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X236" s="7"/>
+      <c r="Y236" s="7"/>
+      <c r="Z236" s="7"/>
+      <c r="AA236" s="7"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>39325</v>
       </c>
@@ -16589,8 +17553,12 @@
       <c r="V237" s="6">
         <v>-6.9538399319700002E-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X237" s="7"/>
+      <c r="Y237" s="7"/>
+      <c r="Z237" s="7"/>
+      <c r="AA237" s="7"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>39353</v>
       </c>
@@ -16657,8 +17625,12 @@
       <c r="V238" s="6">
         <v>2.44311844557E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X238" s="7"/>
+      <c r="Y238" s="7"/>
+      <c r="Z238" s="7"/>
+      <c r="AA238" s="7"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>39386</v>
       </c>
@@ -16725,8 +17697,12 @@
       <c r="V239" s="6">
         <v>1.29628574079E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X239" s="7"/>
+      <c r="Y239" s="7"/>
+      <c r="Z239" s="7"/>
+      <c r="AA239" s="7"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>39416</v>
       </c>
@@ -16793,8 +17769,12 @@
       <c r="V240" s="6">
         <v>-7.0743146094300003E-3</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X240" s="7"/>
+      <c r="Y240" s="7"/>
+      <c r="Z240" s="7"/>
+      <c r="AA240" s="7"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>39447</v>
       </c>
@@ -16861,8 +17841,12 @@
       <c r="V241" s="6">
         <v>-2.8071204866900001E-3</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X241" s="7"/>
+      <c r="Y241" s="7"/>
+      <c r="Z241" s="7"/>
+      <c r="AA241" s="7"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>39478</v>
       </c>
@@ -16929,8 +17913,12 @@
       <c r="V242" s="6">
         <v>-1.2529009400700001E-3</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X242" s="7"/>
+      <c r="Y242" s="7"/>
+      <c r="Z242" s="7"/>
+      <c r="AA242" s="7"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>39507</v>
       </c>
@@ -16997,8 +17985,12 @@
       <c r="V243" s="6">
         <v>2.7601285878800001E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X243" s="7"/>
+      <c r="Y243" s="7"/>
+      <c r="Z243" s="7"/>
+      <c r="AA243" s="7"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>39538</v>
       </c>
@@ -17065,8 +18057,12 @@
       <c r="V244" s="6">
         <v>-1.2849700463600001E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X244" s="7"/>
+      <c r="Y244" s="7"/>
+      <c r="Z244" s="7"/>
+      <c r="AA244" s="7"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>39568</v>
       </c>
@@ -17133,8 +18129,12 @@
       <c r="V245" s="6">
         <v>3.4958553535700001E-3</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X245" s="7"/>
+      <c r="Y245" s="7"/>
+      <c r="Z245" s="7"/>
+      <c r="AA245" s="7"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>39598</v>
       </c>
@@ -17201,8 +18201,12 @@
       <c r="V246" s="6">
         <v>-6.1472862777199998E-3</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X246" s="7"/>
+      <c r="Y246" s="7"/>
+      <c r="Z246" s="7"/>
+      <c r="AA246" s="7"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>39629</v>
       </c>
@@ -17269,8 +18273,12 @@
       <c r="V247" s="6">
         <v>-9.4557746491400006E-3</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X247" s="7"/>
+      <c r="Y247" s="7"/>
+      <c r="Z247" s="7"/>
+      <c r="AA247" s="7"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>39660</v>
       </c>
@@ -17337,8 +18345,12 @@
       <c r="V248" s="6">
         <v>-9.1630634317299998E-3</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X248" s="7"/>
+      <c r="Y248" s="7"/>
+      <c r="Z248" s="7"/>
+      <c r="AA248" s="7"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>39689</v>
       </c>
@@ -17405,8 +18417,12 @@
       <c r="V249" s="6">
         <v>-1.3583104401300001E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X249" s="7"/>
+      <c r="Y249" s="7"/>
+      <c r="Z249" s="7"/>
+      <c r="AA249" s="7"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>39721</v>
       </c>
@@ -17473,8 +18489,12 @@
       <c r="V250" s="6">
         <v>-4.0859360811999999E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X250" s="7"/>
+      <c r="Y250" s="7"/>
+      <c r="Z250" s="7"/>
+      <c r="AA250" s="7"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>39752</v>
       </c>
@@ -17541,8 +18561,12 @@
       <c r="V251" s="6">
         <v>-6.3719494000699997E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X251" s="7"/>
+      <c r="Y251" s="7"/>
+      <c r="Z251" s="7"/>
+      <c r="AA251" s="7"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>39780</v>
       </c>
@@ -17609,8 +18633,12 @@
       <c r="V252" s="6">
         <v>7.1802040372199996E-3</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X252" s="7"/>
+      <c r="Y252" s="7"/>
+      <c r="Z252" s="7"/>
+      <c r="AA252" s="7"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>39813</v>
       </c>
@@ -17677,8 +18705,12 @@
       <c r="V253" s="6">
         <v>2.28791957827E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X253" s="7"/>
+      <c r="Y253" s="7"/>
+      <c r="Z253" s="7"/>
+      <c r="AA253" s="7"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>39843</v>
       </c>
@@ -17745,8 +18777,12 @@
       <c r="V254" s="6">
         <v>-3.0559411334099999E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X254" s="7"/>
+      <c r="Y254" s="7"/>
+      <c r="Z254" s="7"/>
+      <c r="AA254" s="7"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>39871</v>
       </c>
@@ -17813,8 +18849,12 @@
       <c r="V255" s="6">
         <v>-1.9853291842799999E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X255" s="7"/>
+      <c r="Y255" s="7"/>
+      <c r="Z255" s="7"/>
+      <c r="AA255" s="7"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>39903</v>
       </c>
@@ -17881,8 +18921,12 @@
       <c r="V256" s="6">
         <v>3.1025493294599998E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X256" s="7"/>
+      <c r="Y256" s="7"/>
+      <c r="Z256" s="7"/>
+      <c r="AA256" s="7"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>39933</v>
       </c>
@@ -17949,8 +18993,12 @@
       <c r="V257" s="6">
         <v>2.2138046475700002E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X257" s="7"/>
+      <c r="Y257" s="7"/>
+      <c r="Z257" s="7"/>
+      <c r="AA257" s="7"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>39962</v>
       </c>
@@ -18017,8 +19065,12 @@
       <c r="V258" s="6">
         <v>3.1615113442599999E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X258" s="7"/>
+      <c r="Y258" s="7"/>
+      <c r="Z258" s="7"/>
+      <c r="AA258" s="7"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>39994</v>
       </c>
@@ -18085,8 +19137,12 @@
       <c r="V259" s="6">
         <v>-7.77065156497E-4</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X259" s="7"/>
+      <c r="Y259" s="7"/>
+      <c r="Z259" s="7"/>
+      <c r="AA259" s="7"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>40025</v>
       </c>
@@ -18153,8 +19209,12 @@
       <c r="V260" s="6">
         <v>2.3958755396900001E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X260" s="7"/>
+      <c r="Y260" s="7"/>
+      <c r="Z260" s="7"/>
+      <c r="AA260" s="7"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>40056</v>
       </c>
@@ -18221,8 +19281,12 @@
       <c r="V261" s="6">
         <v>1.27155728692E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X261" s="7"/>
+      <c r="Y261" s="7"/>
+      <c r="Z261" s="7"/>
+      <c r="AA261" s="7"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>40086</v>
       </c>
@@ -18289,8 +19353,12 @@
       <c r="V262" s="6">
         <v>1.40894953791E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X262" s="7"/>
+      <c r="Y262" s="7"/>
+      <c r="Z262" s="7"/>
+      <c r="AA262" s="7"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>40116</v>
       </c>
@@ -18357,8 +19425,12 @@
       <c r="V263" s="6">
         <v>4.9835605603700001E-3</v>
       </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X263" s="7"/>
+      <c r="Y263" s="7"/>
+      <c r="Z263" s="7"/>
+      <c r="AA263" s="7"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>40147</v>
       </c>
@@ -18425,8 +19497,12 @@
       <c r="V264" s="6">
         <v>1.4612123058E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X264" s="7"/>
+      <c r="Y264" s="7"/>
+      <c r="Z264" s="7"/>
+      <c r="AA264" s="7"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>40178</v>
       </c>
@@ -18493,8 +19569,12 @@
       <c r="V265" s="6">
         <v>-5.9112458503100002E-3</v>
       </c>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X265" s="7"/>
+      <c r="Y265" s="7"/>
+      <c r="Z265" s="7"/>
+      <c r="AA265" s="7"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>40207</v>
       </c>
@@ -18561,8 +19641,12 @@
       <c r="V266" s="6">
         <v>-9.5859730153699998E-3</v>
       </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X266" s="7"/>
+      <c r="Y266" s="7"/>
+      <c r="Z266" s="7"/>
+      <c r="AA266" s="7"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>40235</v>
       </c>
@@ -18629,8 +19713,12 @@
       <c r="V267" s="6">
         <v>5.9983094581099999E-3</v>
       </c>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X267" s="7"/>
+      <c r="Y267" s="7"/>
+      <c r="Z267" s="7"/>
+      <c r="AA267" s="7"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>40268</v>
       </c>
@@ -18697,8 +19785,12 @@
       <c r="V268" s="6">
         <v>8.6984522916199996E-3</v>
       </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X268" s="7"/>
+      <c r="Y268" s="7"/>
+      <c r="Z268" s="7"/>
+      <c r="AA268" s="7"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>40298</v>
       </c>
@@ -18765,8 +19857,12 @@
       <c r="V269" s="6">
         <v>6.5918091037799999E-3</v>
       </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X269" s="7"/>
+      <c r="Y269" s="7"/>
+      <c r="Z269" s="7"/>
+      <c r="AA269" s="7"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>40329</v>
       </c>
@@ -18833,8 +19929,12 @@
       <c r="V270" s="6">
         <v>-1.9500967370699999E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X270" s="7"/>
+      <c r="Y270" s="7"/>
+      <c r="Z270" s="7"/>
+      <c r="AA270" s="7"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>40359</v>
       </c>
@@ -18901,8 +20001,12 @@
       <c r="V271" s="6">
         <v>6.38294910564E-3</v>
       </c>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X271" s="7"/>
+      <c r="Y271" s="7"/>
+      <c r="Z271" s="7"/>
+      <c r="AA271" s="7"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>40389</v>
       </c>
@@ -18969,8 +20073,12 @@
       <c r="V272" s="6">
         <v>3.0135956736600002E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X272" s="7"/>
+      <c r="Y272" s="7"/>
+      <c r="Z272" s="7"/>
+      <c r="AA272" s="7"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>40421</v>
       </c>
@@ -19037,8 +20145,12 @@
       <c r="V273" s="6">
         <v>1.00649174703E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X273" s="7"/>
+      <c r="Y273" s="7"/>
+      <c r="Z273" s="7"/>
+      <c r="AA273" s="7"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>40451</v>
       </c>
@@ -19105,8 +20217,12 @@
       <c r="V274" s="6">
         <v>2.3268105635200001E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X274" s="7"/>
+      <c r="Y274" s="7"/>
+      <c r="Z274" s="7"/>
+      <c r="AA274" s="7"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>40480</v>
       </c>
@@ -19173,8 +20289,12 @@
       <c r="V275" s="6">
         <v>8.2369283832800008E-3</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X275" s="7"/>
+      <c r="Y275" s="7"/>
+      <c r="Z275" s="7"/>
+      <c r="AA275" s="7"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>40512</v>
       </c>
@@ -19241,8 +20361,12 @@
       <c r="V276" s="6">
         <v>-2.3354827504299999E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X276" s="7"/>
+      <c r="Y276" s="7"/>
+      <c r="Z276" s="7"/>
+      <c r="AA276" s="7"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>40543</v>
       </c>
@@ -19309,8 +20433,12 @@
       <c r="V277" s="6">
         <v>2.39908983853E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X277" s="7"/>
+      <c r="Y277" s="7"/>
+      <c r="Z277" s="7"/>
+      <c r="AA277" s="7"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>40574</v>
       </c>
@@ -19377,8 +20505,12 @@
       <c r="V278" s="6">
         <v>4.3591488047100002E-3</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X278" s="7"/>
+      <c r="Y278" s="7"/>
+      <c r="Z278" s="7"/>
+      <c r="AA278" s="7"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>40602</v>
       </c>
@@ -19445,8 +20577,12 @@
       <c r="V279" s="6">
         <v>9.6900139339199994E-3</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X279" s="7"/>
+      <c r="Y279" s="7"/>
+      <c r="Z279" s="7"/>
+      <c r="AA279" s="7"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>40633</v>
       </c>
@@ -19513,8 +20649,12 @@
       <c r="V280" s="6">
         <v>-3.85504881281E-4</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X280" s="7"/>
+      <c r="Y280" s="7"/>
+      <c r="Z280" s="7"/>
+      <c r="AA280" s="7"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>40662</v>
       </c>
@@ -19581,8 +20721,12 @@
       <c r="V281" s="6">
         <v>1.93319780156E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X281" s="7"/>
+      <c r="Y281" s="7"/>
+      <c r="Z281" s="7"/>
+      <c r="AA281" s="7"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>40694</v>
       </c>
@@ -19649,8 +20793,12 @@
       <c r="V282" s="6">
         <v>-2.2835792206299999E-3</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X282" s="7"/>
+      <c r="Y282" s="7"/>
+      <c r="Z282" s="7"/>
+      <c r="AA282" s="7"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>40724</v>
       </c>
@@ -19717,8 +20865,12 @@
       <c r="V283" s="6">
         <v>-8.9261821081000007E-3</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X283" s="7"/>
+      <c r="Y283" s="7"/>
+      <c r="Z283" s="7"/>
+      <c r="AA283" s="7"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>40753</v>
       </c>
@@ -19785,8 +20937,12 @@
       <c r="V284" s="6">
         <v>1.18853461367E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X284" s="7"/>
+      <c r="Y284" s="7"/>
+      <c r="Z284" s="7"/>
+      <c r="AA284" s="7"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>40786</v>
       </c>
@@ -19853,8 +21009,12 @@
       <c r="V285" s="6">
         <v>4.9033252630100001E-3</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X285" s="7"/>
+      <c r="Y285" s="7"/>
+      <c r="Z285" s="7"/>
+      <c r="AA285" s="7"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>40816</v>
       </c>
@@ -19921,8 +21081,12 @@
       <c r="V286" s="6">
         <v>-3.1634790622800002E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X286" s="7"/>
+      <c r="Y286" s="7"/>
+      <c r="Z286" s="7"/>
+      <c r="AA286" s="7"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>40847</v>
       </c>
@@ -19989,8 +21153,12 @@
       <c r="V287" s="6">
         <v>1.5378448953300001E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X287" s="7"/>
+      <c r="Y287" s="7"/>
+      <c r="Z287" s="7"/>
+      <c r="AA287" s="7"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>40877</v>
       </c>
@@ -20057,8 +21225,12 @@
       <c r="V288" s="6">
         <v>-1.90859964157E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X288" s="7"/>
+      <c r="Y288" s="7"/>
+      <c r="Z288" s="7"/>
+      <c r="AA288" s="7"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>40907</v>
       </c>
@@ -20125,8 +21297,12 @@
       <c r="V289" s="6">
         <v>9.9462392286200005E-3</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X289" s="7"/>
+      <c r="Y289" s="7"/>
+      <c r="Z289" s="7"/>
+      <c r="AA289" s="7"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>40939</v>
       </c>
@@ -20193,8 +21369,12 @@
       <c r="V290" s="6">
         <v>2.1589638101100001E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X290" s="7"/>
+      <c r="Y290" s="7"/>
+      <c r="Z290" s="7"/>
+      <c r="AA290" s="7"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>40968</v>
       </c>
@@ -20261,8 +21441,12 @@
       <c r="V291" s="6">
         <v>1.41644511048E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X291" s="7"/>
+      <c r="Y291" s="7"/>
+      <c r="Z291" s="7"/>
+      <c r="AA291" s="7"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>40998</v>
       </c>
@@ -20329,8 +21513,12 @@
       <c r="V292" s="6">
         <v>-6.5650390922000002E-3</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X292" s="7"/>
+      <c r="Y292" s="7"/>
+      <c r="Z292" s="7"/>
+      <c r="AA292" s="7"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>41029</v>
       </c>
@@ -20397,8 +21585,12 @@
       <c r="V293" s="6">
         <v>4.3854398903100001E-4</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X293" s="7"/>
+      <c r="Y293" s="7"/>
+      <c r="Z293" s="7"/>
+      <c r="AA293" s="7"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>41060</v>
       </c>
@@ -20465,8 +21657,12 @@
       <c r="V294" s="6">
         <v>-2.2809660115400001E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X294" s="7"/>
+      <c r="Y294" s="7"/>
+      <c r="Z294" s="7"/>
+      <c r="AA294" s="7"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>41089</v>
       </c>
@@ -20533,8 +21729,12 @@
       <c r="V295" s="6">
         <v>1.44257228552E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X295" s="7"/>
+      <c r="Y295" s="7"/>
+      <c r="Z295" s="7"/>
+      <c r="AA295" s="7"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>41121</v>
       </c>
@@ -20601,8 +21801,12 @@
       <c r="V296" s="6">
         <v>1.8863326982100002E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X296" s="7"/>
+      <c r="Y296" s="7"/>
+      <c r="Z296" s="7"/>
+      <c r="AA296" s="7"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>41152</v>
       </c>
@@ -20669,8 +21873,12 @@
       <c r="V297" s="6">
         <v>1.3291633100900001E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X297" s="7"/>
+      <c r="Y297" s="7"/>
+      <c r="Z297" s="7"/>
+      <c r="AA297" s="7"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>41180</v>
       </c>
@@ -20737,8 +21945,12 @@
       <c r="V298" s="6">
         <v>1.15853055627E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X298" s="7"/>
+      <c r="Y298" s="7"/>
+      <c r="Z298" s="7"/>
+      <c r="AA298" s="7"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>41213</v>
       </c>
@@ -20805,8 +22017,12 @@
       <c r="V299" s="6">
         <v>-3.4456717045999999E-3</v>
       </c>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X299" s="7"/>
+      <c r="Y299" s="7"/>
+      <c r="Z299" s="7"/>
+      <c r="AA299" s="7"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>41243</v>
       </c>
@@ -20873,8 +22089,12 @@
       <c r="V300" s="6">
         <v>9.9450499982499992E-3</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X300" s="7"/>
+      <c r="Y300" s="7"/>
+      <c r="Z300" s="7"/>
+      <c r="AA300" s="7"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>41274</v>
       </c>
@@ -20941,8 +22161,12 @@
       <c r="V301" s="6">
         <v>2.4108565048199999E-3</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X301" s="7"/>
+      <c r="Y301" s="7"/>
+      <c r="Z301" s="7"/>
+      <c r="AA301" s="7"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>41305</v>
       </c>
@@ -21009,8 +22233,12 @@
       <c r="V302" s="6">
         <v>3.9568634641000003E-3</v>
       </c>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X302" s="7"/>
+      <c r="Y302" s="7"/>
+      <c r="Z302" s="7"/>
+      <c r="AA302" s="7"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>41333</v>
       </c>
@@ -21077,8 +22305,12 @@
       <c r="V303" s="6">
         <v>-5.4198022184400001E-3</v>
       </c>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X303" s="7"/>
+      <c r="Y303" s="7"/>
+      <c r="Z303" s="7"/>
+      <c r="AA303" s="7"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>41362</v>
       </c>
@@ -21145,8 +22377,12 @@
       <c r="V304" s="6">
         <v>2.3855734998399999E-3</v>
       </c>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X304" s="7"/>
+      <c r="Y304" s="7"/>
+      <c r="Z304" s="7"/>
+      <c r="AA304" s="7"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>41394</v>
       </c>
@@ -21213,8 +22449,12 @@
       <c r="V305" s="6">
         <v>1.3459517082099999E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X305" s="7"/>
+      <c r="Y305" s="7"/>
+      <c r="Z305" s="7"/>
+      <c r="AA305" s="7"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>41425</v>
       </c>
@@ -21281,8 +22521,12 @@
       <c r="V306" s="6">
         <v>-1.9790484091499999E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X306" s="7"/>
+      <c r="Y306" s="7"/>
+      <c r="Z306" s="7"/>
+      <c r="AA306" s="7"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>41453</v>
       </c>
@@ -21349,8 +22593,12 @@
       <c r="V307" s="6">
         <v>-2.3682530963900002E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X307" s="7"/>
+      <c r="Y307" s="7"/>
+      <c r="Z307" s="7"/>
+      <c r="AA307" s="7"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>41486</v>
       </c>
@@ -21417,8 +22665,12 @@
       <c r="V308" s="6">
         <v>1.58800036779E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X308" s="7"/>
+      <c r="Y308" s="7"/>
+      <c r="Z308" s="7"/>
+      <c r="AA308" s="7"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>41516</v>
       </c>
@@ -21485,8 +22737,12 @@
       <c r="V309" s="6">
         <v>-1.1359148275E-3</v>
       </c>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X309" s="7"/>
+      <c r="Y309" s="7"/>
+      <c r="Z309" s="7"/>
+      <c r="AA309" s="7"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>41547</v>
       </c>
@@ -21553,8 +22809,12 @@
       <c r="V310" s="6">
         <v>1.7478171211299999E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X310" s="7"/>
+      <c r="Y310" s="7"/>
+      <c r="Z310" s="7"/>
+      <c r="AA310" s="7"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>41578</v>
       </c>
@@ -21621,8 +22881,12 @@
       <c r="V311" s="6">
         <v>1.1351650806999999E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X311" s="7"/>
+      <c r="Y311" s="7"/>
+      <c r="Z311" s="7"/>
+      <c r="AA311" s="7"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>41607</v>
       </c>
@@ -21689,8 +22953,12 @@
       <c r="V312" s="6">
         <v>-1.4220697154100001E-3</v>
       </c>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X312" s="7"/>
+      <c r="Y312" s="7"/>
+      <c r="Z312" s="7"/>
+      <c r="AA312" s="7"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>41639</v>
       </c>
@@ -21757,8 +23025,12 @@
       <c r="V313" s="6">
         <v>-4.6644140579199999E-3</v>
       </c>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X313" s="7"/>
+      <c r="Y313" s="7"/>
+      <c r="Z313" s="7"/>
+      <c r="AA313" s="7"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>41670</v>
       </c>
@@ -21825,8 +23097,12 @@
       <c r="V314" s="6">
         <v>5.3300538846399997E-3</v>
       </c>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X314" s="7"/>
+      <c r="Y314" s="7"/>
+      <c r="Z314" s="7"/>
+      <c r="AA314" s="7"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>41698</v>
       </c>
@@ -21893,8 +23169,12 @@
       <c r="V315" s="6">
         <v>2.6538849638699999E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X315" s="7"/>
+      <c r="Y315" s="7"/>
+      <c r="Z315" s="7"/>
+      <c r="AA315" s="7"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>41729</v>
       </c>
@@ -21961,8 +23241,12 @@
       <c r="V316" s="6">
         <v>7.1071114337499996E-3</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X316" s="7"/>
+      <c r="Y316" s="7"/>
+      <c r="Z316" s="7"/>
+      <c r="AA316" s="7"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>41759</v>
       </c>
@@ -22029,8 +23313,12 @@
       <c r="V317" s="6">
         <v>1.1010521346800001E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X317" s="7"/>
+      <c r="Y317" s="7"/>
+      <c r="Z317" s="7"/>
+      <c r="AA317" s="7"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>41789</v>
       </c>
@@ -22097,8 +23385,12 @@
       <c r="V318" s="6">
         <v>4.5650949799000001E-3</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X318" s="7"/>
+      <c r="Y318" s="7"/>
+      <c r="Z318" s="7"/>
+      <c r="AA318" s="7"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>41820</v>
       </c>
@@ -22165,8 +23457,12 @@
       <c r="V319" s="6">
         <v>6.7221544707300003E-3</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X319" s="7"/>
+      <c r="Y319" s="7"/>
+      <c r="Z319" s="7"/>
+      <c r="AA319" s="7"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>41851</v>
       </c>
@@ -22233,8 +23529,12 @@
       <c r="V320" s="6">
         <v>-9.7294307884200001E-3</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X320" s="7"/>
+      <c r="Y320" s="7"/>
+      <c r="Z320" s="7"/>
+      <c r="AA320" s="7"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>41880</v>
       </c>
@@ -22301,8 +23601,12 @@
       <c r="V321" s="6">
         <v>9.7797083151699993E-3</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X321" s="7"/>
+      <c r="Y321" s="7"/>
+      <c r="Z321" s="7"/>
+      <c r="AA321" s="7"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>41912</v>
       </c>
@@ -22369,8 +23673,12 @@
       <c r="V322" s="6">
         <v>-2.0052042853499999E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X322" s="7"/>
+      <c r="Y322" s="7"/>
+      <c r="Z322" s="7"/>
+      <c r="AA322" s="7"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>41943</v>
       </c>
@@ -22437,8 +23745,12 @@
       <c r="V323" s="6">
         <v>-1.9299537286000001E-3</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X323" s="7"/>
+      <c r="Y323" s="7"/>
+      <c r="Z323" s="7"/>
+      <c r="AA323" s="7"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>41971</v>
       </c>
@@ -22505,8 +23817,12 @@
       <c r="V324" s="6">
         <v>1.1978777557599999E-3</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X324" s="7"/>
+      <c r="Y324" s="7"/>
+      <c r="Z324" s="7"/>
+      <c r="AA324" s="7"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>42004</v>
       </c>
@@ -22573,8 +23889,12 @@
       <c r="V325" s="6">
         <v>-1.58417383599E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X325" s="7"/>
+      <c r="Y325" s="7"/>
+      <c r="Z325" s="7"/>
+      <c r="AA325" s="7"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>42034</v>
       </c>
@@ -22641,8 +23961,12 @@
       <c r="V326" s="6">
         <v>7.9808802238900002E-4</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X326" s="7"/>
+      <c r="Y326" s="7"/>
+      <c r="Z326" s="7"/>
+      <c r="AA326" s="7"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>42062</v>
       </c>
@@ -22709,8 +24033,12 @@
       <c r="V327" s="6">
         <v>1.50070658145E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X327" s="7"/>
+      <c r="Y327" s="7"/>
+      <c r="Z327" s="7"/>
+      <c r="AA327" s="7"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>42094</v>
       </c>
@@ -22777,8 +24105,12 @@
       <c r="V328" s="6">
         <v>-4.45982168674E-3</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X328" s="7"/>
+      <c r="Y328" s="7"/>
+      <c r="Z328" s="7"/>
+      <c r="AA328" s="7"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>42124</v>
       </c>
@@ -22845,8 +24177,12 @@
       <c r="V329" s="6">
         <v>8.5189617951499999E-3</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X329" s="7"/>
+      <c r="Y329" s="7"/>
+      <c r="Z329" s="7"/>
+      <c r="AA329" s="7"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>42153</v>
       </c>
@@ -22913,8 +24249,12 @@
       <c r="V330" s="6">
         <v>-1.15092556866E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X330" s="7"/>
+      <c r="Y330" s="7"/>
+      <c r="Z330" s="7"/>
+      <c r="AA330" s="7"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>42185</v>
       </c>
@@ -22981,8 +24321,12 @@
       <c r="V331" s="6">
         <v>-1.03571455261E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X331" s="7"/>
+      <c r="Y331" s="7"/>
+      <c r="Z331" s="7"/>
+      <c r="AA331" s="7"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>42216</v>
       </c>
@@ -23049,8 +24393,12 @@
       <c r="V332" s="6">
         <v>-6.8041588921400002E-3</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X332" s="7"/>
+      <c r="Y332" s="7"/>
+      <c r="Z332" s="7"/>
+      <c r="AA332" s="7"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>42247</v>
       </c>
@@ -23117,8 +24465,12 @@
       <c r="V333" s="6">
         <v>-2.18411568112E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X333" s="7"/>
+      <c r="Y333" s="7"/>
+      <c r="Z333" s="7"/>
+      <c r="AA333" s="7"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>42277</v>
       </c>
@@ -23185,8 +24537,12 @@
       <c r="V334" s="6">
         <v>-8.0859108731500002E-3</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X334" s="7"/>
+      <c r="Y334" s="7"/>
+      <c r="Z334" s="7"/>
+      <c r="AA334" s="7"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>42307</v>
       </c>
@@ -23253,8 +24609,12 @@
       <c r="V335" s="6">
         <v>1.5650677103900001E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X335" s="7"/>
+      <c r="Y335" s="7"/>
+      <c r="Z335" s="7"/>
+      <c r="AA335" s="7"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>42338</v>
       </c>
@@ -23321,8 +24681,12 @@
       <c r="V336" s="6">
         <v>-1.26000536394E-2</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X336" s="7"/>
+      <c r="Y336" s="7"/>
+      <c r="Z336" s="7"/>
+      <c r="AA336" s="7"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>42369</v>
       </c>
@@ -23389,8 +24753,12 @@
       <c r="V337" s="6">
         <v>-6.74236524814E-3</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X337" s="7"/>
+      <c r="Y337" s="7"/>
+      <c r="Z337" s="7"/>
+      <c r="AA337" s="7"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>42398</v>
       </c>
@@ -23457,8 +24825,12 @@
       <c r="V338" s="6">
         <v>-1.00409343584E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X338" s="7"/>
+      <c r="Y338" s="7"/>
+      <c r="Z338" s="7"/>
+      <c r="AA338" s="7"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>42429</v>
       </c>
@@ -23525,8 +24897,12 @@
       <c r="V339" s="6">
         <v>5.5621743074900001E-3</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X339" s="7"/>
+      <c r="Y339" s="7"/>
+      <c r="Z339" s="7"/>
+      <c r="AA339" s="7"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>42460</v>
       </c>
@@ -23593,8 +24969,12 @@
       <c r="V340" s="6">
         <v>2.3954589844899999E-2</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X340" s="7"/>
+      <c r="Y340" s="7"/>
+      <c r="Z340" s="7"/>
+      <c r="AA340" s="7"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>42489</v>
       </c>
@@ -23661,8 +25041,12 @@
       <c r="V341" s="6">
         <v>1.50179826989E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X341" s="7"/>
+      <c r="Y341" s="7"/>
+      <c r="Z341" s="7"/>
+      <c r="AA341" s="7"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>42521</v>
       </c>
@@ -23729,8 +25113,12 @@
       <c r="V342" s="6">
         <v>-1.8695663570699999E-3</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X342" s="7"/>
+      <c r="Y342" s="7"/>
+      <c r="Z342" s="7"/>
+      <c r="AA342" s="7"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>42551</v>
       </c>
@@ -23797,8 +25185,12 @@
       <c r="V343" s="6">
         <v>1.34765334298E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X343" s="7"/>
+      <c r="Y343" s="7"/>
+      <c r="Z343" s="7"/>
+      <c r="AA343" s="7"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>42580</v>
       </c>
@@ -23865,8 +25257,12 @@
       <c r="V344" s="6">
         <v>4.0414331069200003E-3</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X344" s="7"/>
+      <c r="Y344" s="7"/>
+      <c r="Z344" s="7"/>
+      <c r="AA344" s="7"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>42613</v>
       </c>
@@ -23933,8 +25329,12 @@
       <c r="V345" s="6">
         <v>-9.8473639753899993E-4</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X345" s="7"/>
+      <c r="Y345" s="7"/>
+      <c r="Z345" s="7"/>
+      <c r="AA345" s="7"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>42643</v>
       </c>
@@ -24001,8 +25401,12 @@
       <c r="V346" s="6">
         <v>6.5643951701599996E-3</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X346" s="7"/>
+      <c r="Y346" s="7"/>
+      <c r="Z346" s="7"/>
+      <c r="AA346" s="7"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>42674</v>
       </c>
@@ -24069,8 +25473,12 @@
       <c r="V347" s="6">
         <v>-1.48665321353E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X347" s="7"/>
+      <c r="Y347" s="7"/>
+      <c r="Z347" s="7"/>
+      <c r="AA347" s="7"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>42704</v>
       </c>
@@ -24137,8 +25545,12 @@
       <c r="V348" s="6">
         <v>-1.0526150857799999E-2</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X348" s="7"/>
+      <c r="Y348" s="7"/>
+      <c r="Z348" s="7"/>
+      <c r="AA348" s="7"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>42734</v>
       </c>
@@ -24205,8 +25617,12 @@
       <c r="V349" s="6">
         <v>6.2199113208800004E-3</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X349" s="7"/>
+      <c r="Y349" s="7"/>
+      <c r="Z349" s="7"/>
+      <c r="AA349" s="7"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>42766</v>
       </c>
@@ -24273,8 +25689,12 @@
       <c r="V350" s="6">
         <v>1.03001780371E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X350" s="7"/>
+      <c r="Y350" s="7"/>
+      <c r="Z350" s="7"/>
+      <c r="AA350" s="7"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>42794</v>
       </c>
@@ -24341,8 +25761,12 @@
       <c r="V351" s="6">
         <v>6.3625683704899997E-3</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X351" s="7"/>
+      <c r="Y351" s="7"/>
+      <c r="Z351" s="7"/>
+      <c r="AA351" s="7"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>42825</v>
       </c>
@@ -24409,8 +25833,12 @@
       <c r="V352" s="6">
         <v>-8.0426282203200001E-4</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X352" s="7"/>
+      <c r="Y352" s="7"/>
+      <c r="Z352" s="7"/>
+      <c r="AA352" s="7"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>42853</v>
       </c>
@@ -24477,8 +25905,12 @@
       <c r="V353" s="6">
         <v>3.65831562008E-3</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X353" s="7"/>
+      <c r="Y353" s="7"/>
+      <c r="Z353" s="7"/>
+      <c r="AA353" s="7"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>42886</v>
       </c>
@@ -24545,8 +25977,12 @@
       <c r="V354" s="6">
         <v>8.8149522506300003E-3</v>
       </c>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X354" s="7"/>
+      <c r="Y354" s="7"/>
+      <c r="Z354" s="7"/>
+      <c r="AA354" s="7"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>42916</v>
       </c>
@@ -24613,8 +26049,12 @@
       <c r="V355" s="6">
         <v>-3.3791109750199999E-3</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X355" s="7"/>
+      <c r="Y355" s="7"/>
+      <c r="Z355" s="7"/>
+      <c r="AA355" s="7"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>42947</v>
       </c>
@@ -24681,8 +26121,12 @@
       <c r="V356" s="6">
         <v>1.3127967945300001E-2</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X356" s="7"/>
+      <c r="Y356" s="7"/>
+      <c r="Z356" s="7"/>
+      <c r="AA356" s="7"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>42978</v>
       </c>
@@ -24749,8 +26193,12 @@
       <c r="V357" s="6">
         <v>4.39448554161E-3</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X357" s="7"/>
+      <c r="Y357" s="7"/>
+      <c r="Z357" s="7"/>
+      <c r="AA357" s="7"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>43007</v>
       </c>
@@ -24817,8 +26265,12 @@
       <c r="V358" s="6">
         <v>-7.80854708201E-4</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X358" s="7"/>
+      <c r="Y358" s="7"/>
+      <c r="Z358" s="7"/>
+      <c r="AA358" s="7"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>43039</v>
       </c>
@@ -24885,8 +26337,12 @@
       <c r="V359" s="6">
         <v>4.5250650888699999E-3</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X359" s="7"/>
+      <c r="Y359" s="7"/>
+      <c r="Z359" s="7"/>
+      <c r="AA359" s="7"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>43069</v>
       </c>
@@ -24953,8 +26409,12 @@
       <c r="V360" s="6">
         <v>8.5256396836800002E-4</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X360" s="7"/>
+      <c r="Y360" s="7"/>
+      <c r="Z360" s="7"/>
+      <c r="AA360" s="7"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>43098</v>
       </c>
@@ -25021,8 +26481,12 @@
       <c r="V361" s="6">
         <v>6.3852958281999999E-3</v>
       </c>
-    </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X361" s="7"/>
+      <c r="Y361" s="7"/>
+      <c r="Z361" s="7"/>
+      <c r="AA361" s="7"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>43131</v>
       </c>
@@ -25089,8 +26553,12 @@
       <c r="V362" s="6">
         <v>1.07092926931E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X362" s="7"/>
+      <c r="Y362" s="7"/>
+      <c r="Z362" s="7"/>
+      <c r="AA362" s="7"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>43159</v>
       </c>
@@ -25157,8 +26625,12 @@
       <c r="V363" s="6">
         <v>-1.12181064108E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X363" s="7"/>
+      <c r="Y363" s="7"/>
+      <c r="Z363" s="7"/>
+      <c r="AA363" s="7"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>43189</v>
       </c>
@@ -25225,8 +26697,12 @@
       <c r="V364" s="6">
         <v>-2.54725001659E-4</v>
       </c>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X364" s="7"/>
+      <c r="Y364" s="7"/>
+      <c r="Z364" s="7"/>
+      <c r="AA364" s="7"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>43220</v>
       </c>
@@ -25293,8 +26769,12 @@
       <c r="V365" s="6">
         <v>2.0790381051800002E-3</v>
       </c>
-    </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X365" s="7"/>
+      <c r="Y365" s="7"/>
+      <c r="Z365" s="7"/>
+      <c r="AA365" s="7"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>43251</v>
       </c>
@@ -25361,8 +26841,12 @@
       <c r="V366" s="6">
         <v>4.8414328900600002E-3</v>
       </c>
-    </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X366" s="7"/>
+      <c r="Y366" s="7"/>
+      <c r="Z366" s="7"/>
+      <c r="AA366" s="7"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>43280</v>
       </c>
@@ -25429,8 +26913,12 @@
       <c r="V367" s="6">
         <v>-9.1572312589099994E-3</v>
       </c>
-    </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X367" s="7"/>
+      <c r="Y367" s="7"/>
+      <c r="Z367" s="7"/>
+      <c r="AA367" s="7"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>43312</v>
       </c>
@@ -25497,8 +26985,12 @@
       <c r="V368" s="6">
         <v>-1.7179712854700001E-3</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X368" s="7"/>
+      <c r="Y368" s="7"/>
+      <c r="Z368" s="7"/>
+      <c r="AA368" s="7"/>
+    </row>
+    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>43343</v>
       </c>
@@ -25565,8 +27057,12 @@
       <c r="V369" s="6">
         <v>-4.8385709129999998E-3</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X369" s="7"/>
+      <c r="Y369" s="7"/>
+      <c r="Z369" s="7"/>
+      <c r="AA369" s="7"/>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>43371</v>
       </c>
@@ -25633,8 +27129,12 @@
       <c r="V370" s="6">
         <v>-1.94288340707E-3</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X370" s="7"/>
+      <c r="Y370" s="7"/>
+      <c r="Z370" s="7"/>
+      <c r="AA370" s="7"/>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>43404</v>
       </c>
@@ -25701,8 +27201,12 @@
       <c r="V371" s="6">
         <v>-1.7020671223500001E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X371" s="7"/>
+      <c r="Y371" s="7"/>
+      <c r="Z371" s="7"/>
+      <c r="AA371" s="7"/>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>43434</v>
       </c>
@@ -25769,8 +27273,12 @@
       <c r="V372" s="6">
         <v>2.7027281181499999E-4</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X372" s="7"/>
+      <c r="Y372" s="7"/>
+      <c r="Z372" s="7"/>
+      <c r="AA372" s="7"/>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>43465</v>
       </c>
@@ -25837,8 +27345,12 @@
       <c r="V373" s="6">
         <v>-1.21735911521E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X373" s="7"/>
+      <c r="Y373" s="7"/>
+      <c r="Z373" s="7"/>
+      <c r="AA373" s="7"/>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>43496</v>
       </c>
@@ -25905,8 +27417,12 @@
       <c r="V374" s="6">
         <v>2.5227310220799999E-2</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X374" s="7"/>
+      <c r="Y374" s="7"/>
+      <c r="Z374" s="7"/>
+      <c r="AA374" s="7"/>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>43524</v>
       </c>
@@ -25973,8 +27489,12 @@
       <c r="V375" s="6">
         <v>3.1277145647299999E-3</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X375" s="7"/>
+      <c r="Y375" s="7"/>
+      <c r="Z375" s="7"/>
+      <c r="AA375" s="7"/>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>43553</v>
       </c>
@@ -26041,8 +27561,12 @@
       <c r="V376" s="6">
         <v>9.3180313459800008E-3</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X376" s="7"/>
+      <c r="Y376" s="7"/>
+      <c r="Z376" s="7"/>
+      <c r="AA376" s="7"/>
+    </row>
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>43585</v>
       </c>
@@ -26109,8 +27633,12 @@
       <c r="V377" s="6">
         <v>-4.9706921368100003E-4</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X377" s="7"/>
+      <c r="Y377" s="7"/>
+      <c r="Z377" s="7"/>
+      <c r="AA377" s="7"/>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>43616</v>
       </c>
@@ -26177,8 +27705,12 @@
       <c r="V378" s="6">
         <v>-6.4909425222999997E-3</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X378" s="7"/>
+      <c r="Y378" s="7"/>
+      <c r="Z378" s="7"/>
+      <c r="AA378" s="7"/>
+    </row>
+    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>43644</v>
       </c>
@@ -26245,8 +27777,12 @@
       <c r="V379" s="6">
         <v>1.8728588555500001E-2</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X379" s="7"/>
+      <c r="Y379" s="7"/>
+      <c r="Z379" s="7"/>
+      <c r="AA379" s="7"/>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>43677</v>
       </c>
@@ -26313,8 +27849,12 @@
       <c r="V380" s="6">
         <v>-1.9286731847300001E-3</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X380" s="7"/>
+      <c r="Y380" s="7"/>
+      <c r="Z380" s="7"/>
+      <c r="AA380" s="7"/>
+    </row>
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>43707</v>
       </c>
@@ -26381,8 +27921,12 @@
       <c r="V381" s="6">
         <v>-5.05760871854E-3</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X381" s="7"/>
+      <c r="Y381" s="7"/>
+      <c r="Z381" s="7"/>
+      <c r="AA381" s="7"/>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>43738</v>
       </c>
@@ -26449,8 +27993,12 @@
       <c r="V382" s="6">
         <v>7.5305627727499996E-3</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X382" s="7"/>
+      <c r="Y382" s="7"/>
+      <c r="Z382" s="7"/>
+      <c r="AA382" s="7"/>
+    </row>
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>43769</v>
       </c>
@@ -26517,8 +28065,12 @@
       <c r="V383" s="6">
         <v>5.5675721914600004E-3</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X383" s="7"/>
+      <c r="Y383" s="7"/>
+      <c r="Z383" s="7"/>
+      <c r="AA383" s="7"/>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>43798</v>
       </c>
@@ -26585,8 +28137,12 @@
       <c r="V384" s="6">
         <v>-3.5097839038999998E-3</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X384" s="7"/>
+      <c r="Y384" s="7"/>
+      <c r="Z384" s="7"/>
+      <c r="AA384" s="7"/>
+    </row>
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>43830</v>
       </c>
@@ -26653,8 +28209,12 @@
       <c r="V385" s="6">
         <v>1.21208191038E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X385" s="7"/>
+      <c r="Y385" s="7"/>
+      <c r="Z385" s="7"/>
+      <c r="AA385" s="7"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>43861</v>
       </c>
@@ -26721,8 +28281,12 @@
       <c r="V386" s="6">
         <v>-9.3134961924699992E-3</v>
       </c>
-    </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X386" s="7"/>
+      <c r="Y386" s="7"/>
+      <c r="Z386" s="7"/>
+      <c r="AA386" s="7"/>
+    </row>
+    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>43889</v>
       </c>
@@ -26789,8 +28353,12 @@
       <c r="V387" s="6">
         <v>-1.8988347065300001E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X387" s="7"/>
+      <c r="Y387" s="7"/>
+      <c r="Z387" s="7"/>
+      <c r="AA387" s="7"/>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>43921</v>
       </c>
@@ -26857,8 +28425,12 @@
       <c r="V388" s="6">
         <v>-4.9118296660500001E-2</v>
       </c>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X388" s="7"/>
+      <c r="Y388" s="7"/>
+      <c r="Z388" s="7"/>
+      <c r="AA388" s="7"/>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>43951</v>
       </c>
@@ -26925,8 +28497,12 @@
       <c r="V389" s="6">
         <v>1.5209975242799999E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X389" s="7"/>
+      <c r="Y389" s="7"/>
+      <c r="Z389" s="7"/>
+      <c r="AA389" s="7"/>
+    </row>
+    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>43980</v>
       </c>
@@ -26993,8 +28569,12 @@
       <c r="V390" s="6">
         <v>1.7688819731000002E-2</v>
       </c>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X390" s="7"/>
+      <c r="Y390" s="7"/>
+      <c r="Z390" s="7"/>
+      <c r="AA390" s="7"/>
+    </row>
+    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44012</v>
       </c>
@@ -27061,8 +28641,12 @@
       <c r="V391" s="6">
         <v>1.10565476553E-2</v>
       </c>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X391" s="7"/>
+      <c r="Y391" s="7"/>
+      <c r="Z391" s="7"/>
+      <c r="AA391" s="7"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44043</v>
       </c>
@@ -27129,8 +28713,12 @@
       <c r="V392" s="6">
         <v>2.1341115983800001E-2</v>
       </c>
-    </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X392" s="7"/>
+      <c r="Y392" s="7"/>
+      <c r="Z392" s="7"/>
+      <c r="AA392" s="7"/>
+    </row>
+    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44074</v>
       </c>
@@ -27197,8 +28785,12 @@
       <c r="V393" s="6">
         <v>1.1189863801E-2</v>
       </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X393" s="7"/>
+      <c r="Y393" s="7"/>
+      <c r="Z393" s="7"/>
+      <c r="AA393" s="7"/>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44104</v>
       </c>
@@ -27265,8 +28857,12 @@
       <c r="V394" s="6">
         <v>-8.2336026135099993E-3</v>
       </c>
-    </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X394" s="7"/>
+      <c r="Y394" s="7"/>
+      <c r="Z394" s="7"/>
+      <c r="AA394" s="7"/>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>44134</v>
       </c>
@@ -27333,8 +28929,12 @@
       <c r="V395" s="6">
         <v>-5.0551459762499997E-3</v>
       </c>
-    </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X395" s="7"/>
+      <c r="Y395" s="7"/>
+      <c r="Z395" s="7"/>
+      <c r="AA395" s="7"/>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44165</v>
       </c>
@@ -27401,8 +29001,12 @@
       <c r="V396" s="6">
         <v>3.5227994651699998E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X396" s="7"/>
+      <c r="Y396" s="7"/>
+      <c r="Z396" s="7"/>
+      <c r="AA396" s="7"/>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44196</v>
       </c>
@@ -27469,8 +29073,12 @@
       <c r="V397" s="6">
         <v>1.5437057655100001E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X397" s="7"/>
+      <c r="Y397" s="7"/>
+      <c r="Z397" s="7"/>
+      <c r="AA397" s="7"/>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44225</v>
       </c>
@@ -27537,8 +29145,12 @@
       <c r="V398" s="6">
         <v>-1.04246258503E-3</v>
       </c>
-    </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X398" s="7"/>
+      <c r="Y398" s="7"/>
+      <c r="Z398" s="7"/>
+      <c r="AA398" s="7"/>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44253</v>
       </c>
@@ -27605,8 +29217,12 @@
       <c r="V399" s="6">
         <v>-6.0729338233400003E-3</v>
       </c>
-    </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X399" s="7"/>
+      <c r="Y399" s="7"/>
+      <c r="Z399" s="7"/>
+      <c r="AA399" s="7"/>
+    </row>
+    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44286</v>
       </c>
@@ -27673,8 +29289,12 @@
       <c r="V400" s="6">
         <v>-3.3468379466300002E-3</v>
       </c>
-    </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X400" s="7"/>
+      <c r="Y400" s="7"/>
+      <c r="Z400" s="7"/>
+      <c r="AA400" s="7"/>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44316</v>
       </c>
@@ -27741,8 +29361,12 @@
       <c r="V401" s="6">
         <v>1.8023660468E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X401" s="7"/>
+      <c r="Y401" s="7"/>
+      <c r="Z401" s="7"/>
+      <c r="AA401" s="7"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44347</v>
       </c>
@@ -27809,8 +29433,12 @@
       <c r="V402" s="6">
         <v>9.4049958180000004E-3</v>
       </c>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X402" s="7"/>
+      <c r="Y402" s="7"/>
+      <c r="Z402" s="7"/>
+      <c r="AA402" s="7"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44377</v>
       </c>
@@ -27877,8 +29505,12 @@
       <c r="V403" s="6">
         <v>-1.7953131552400001E-3</v>
       </c>
-    </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X403" s="7"/>
+      <c r="Y403" s="7"/>
+      <c r="Z403" s="7"/>
+      <c r="AA403" s="7"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>44407</v>
       </c>
@@ -27945,8 +29577,12 @@
       <c r="V404" s="6">
         <v>1.05072471479E-2</v>
       </c>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X404" s="7"/>
+      <c r="Y404" s="7"/>
+      <c r="Z404" s="7"/>
+      <c r="AA404" s="7"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44439</v>
       </c>
@@ -28013,8 +29649,12 @@
       <c r="V405" s="6">
         <v>1.2009191985E-3</v>
       </c>
-    </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X405" s="7"/>
+      <c r="Y405" s="7"/>
+      <c r="Z405" s="7"/>
+      <c r="AA405" s="7"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>44469</v>
       </c>
@@ -28081,8 +29721,12 @@
       <c r="V406" s="6">
         <v>-1.15025724496E-2</v>
       </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X406" s="7"/>
+      <c r="Y406" s="7"/>
+      <c r="Z406" s="7"/>
+      <c r="AA406" s="7"/>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44498</v>
       </c>
@@ -28149,8 +29793,12 @@
       <c r="V407" s="6">
         <v>7.4832001073400004E-3</v>
       </c>
-    </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X407" s="7"/>
+      <c r="Y407" s="7"/>
+      <c r="Z407" s="7"/>
+      <c r="AA407" s="7"/>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44530</v>
       </c>
@@ -28217,8 +29865,12 @@
       <c r="V408" s="6">
         <v>-1.12807501651E-2</v>
       </c>
-    </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X408" s="7"/>
+      <c r="Y408" s="7"/>
+      <c r="Z408" s="7"/>
+      <c r="AA408" s="7"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44561</v>
       </c>
@@ -28285,8 +29937,12 @@
       <c r="V409" s="6">
         <v>1.2030212989E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X409" s="7"/>
+      <c r="Y409" s="7"/>
+      <c r="Z409" s="7"/>
+      <c r="AA409" s="7"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44592</v>
       </c>
@@ -28353,8 +30009,12 @@
       <c r="V410" s="6">
         <v>-8.8848124499100005E-3</v>
       </c>
-    </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X410" s="7"/>
+      <c r="Y410" s="7"/>
+      <c r="Z410" s="7"/>
+      <c r="AA410" s="7"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44620</v>
       </c>
@@ -28421,8 +30081,12 @@
       <c r="V411" s="6">
         <v>1.4737629337799999E-3</v>
       </c>
-    </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X411" s="7"/>
+      <c r="Y411" s="7"/>
+      <c r="Z411" s="7"/>
+      <c r="AA411" s="7"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>44651</v>
       </c>
@@ -28489,8 +30153,12 @@
       <c r="V412" s="6">
         <v>-2.5946351696600001E-3</v>
       </c>
-    </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X412" s="7"/>
+      <c r="Y412" s="7"/>
+      <c r="Z412" s="7"/>
+      <c r="AA412" s="7"/>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>44680</v>
       </c>
@@ -28557,8 +30225,12 @@
       <c r="V413" s="6">
         <v>-2.51902702797E-2</v>
       </c>
-    </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X413" s="7"/>
+      <c r="Y413" s="7"/>
+      <c r="Z413" s="7"/>
+      <c r="AA413" s="7"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>44712</v>
       </c>
@@ -28625,8 +30297,12 @@
       <c r="V414" s="6">
         <v>-2.3454071108799999E-3</v>
       </c>
-    </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X414" s="7"/>
+      <c r="Y414" s="7"/>
+      <c r="Z414" s="7"/>
+      <c r="AA414" s="7"/>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44742</v>
       </c>
@@ -28693,8 +30369,12 @@
       <c r="V415" s="6">
         <v>-3.6978386962099999E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X415" s="7"/>
+      <c r="Y415" s="7"/>
+      <c r="Z415" s="7"/>
+      <c r="AA415" s="7"/>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>44771</v>
       </c>
@@ -28761,8 +30441,12 @@
       <c r="V416" s="6">
         <v>2.8633609764799998E-2</v>
       </c>
-    </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X416" s="7"/>
+      <c r="Y416" s="7"/>
+      <c r="Z416" s="7"/>
+      <c r="AA416" s="7"/>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44804</v>
       </c>
@@ -28829,8 +30513,12 @@
       <c r="V417" s="6">
         <v>-3.01618756073E-2</v>
       </c>
-    </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X417" s="7"/>
+      <c r="Y417" s="7"/>
+      <c r="Z417" s="7"/>
+      <c r="AA417" s="7"/>
+    </row>
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44834</v>
       </c>
@@ -28897,8 +30585,12 @@
       <c r="V418" s="6">
         <v>-4.6011792519100002E-2</v>
       </c>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X418" s="7"/>
+      <c r="Y418" s="7"/>
+      <c r="Z418" s="7"/>
+      <c r="AA418" s="7"/>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44865</v>
       </c>
@@ -28965,8 +30657,13 @@
       <c r="V419" s="6">
         <v>1.6476399741699999E-2</v>
       </c>
+      <c r="X419" s="7"/>
+      <c r="Y419" s="7"/>
+      <c r="Z419" s="7"/>
+      <c r="AA419" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>